--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jio-AIDS\Q3\RE\Proj\src\data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jio-AIDS\Q3\RE_Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E544051-9EBB-41A5-8E31-82B4C2A745F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DCFD0F-6CB9-4BA0-B3BB-85B28D872231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4032CB9B-79CD-452B-8E5C-D1D6CF17F545}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="914">
   <si>
     <t>S.No.</t>
   </si>
@@ -2089,12 +2089,911 @@
   <si>
     <t>Consider someone struggling with impulsive reactions to external stimuli, such as reacting harshly during heated arguments or giving in to unnecessary distractions like excessive social media usage. This verse helps them realize the need to discipline their senses by engaging their mind and intellect. By focusing on their higher self and purpose, they can gain the patience and understanding to respond more thoughtfully and avoid being ruled by momentary impulses.</t>
   </si>
+  <si>
+    <t>Jnana-Karma-Sanyasa Yoga</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Verse 4.1</t>
+  </si>
+  <si>
+    <t>श्रीभगवानुवाच । इमं विवस्वते योगं प्रोक्तवानहमव्ययम् विवस्वान्मनवे प्राह मनुरिक्ष्वाकवेऽब्रवीत् ॥ ...</t>
+  </si>
+  <si>
+    <r>
+      <t>श्रीभगवान् बोले</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>– मैंने इस अविनाशी योगको सूर्यसे कहा थ; सूर्यने अपने पुत्र वैवस्वत मनुसे कहा और मनुने अपने पुत्र राजा इक्ष्वाकुसे कहा|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lord Krishna continued:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> I taught this immortal, everlasting “Yoga faction” (Karmayoga) to the Sun God Vivaswan.Vivaswan taught this knowledge to his son Manu and Manu taught this knowledge to his son Ikswaku.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verse 4.4</t>
+  </si>
+  <si>
+    <t>अर्जुन उवाच । अपरं भवतो जन्म परं जन्म विवस्वतः कथमेतद्विजानीयां त्वमादौ प्रोक्तवानिति ॥ ४.४ ॥</t>
+  </si>
+  <si>
+    <r>
+      <t>अर्जुन बोले—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>आपका जन्म तो अर्वाचीन अभी हालका है और सूर्यका जन्म बहुत पुराना है अर्थात् कल्पके आदिमें हो चुका था । तब मैं इस बातको कैसे समझँ कि आपहीने कल्पके आदिमें सूर्यसे यह योग कहा था?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arjuna asked Lord Krishna:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> Dear Lord, your birth on earth is very recent. The Sun however, took birth an extremely long time ago. I find it difficult then to understand how you could have told this ancient secret to Vivaswan the Sun God.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verse 4.5</t>
+  </si>
+  <si>
+    <t>श्रीभगवानुवाच । बहूनि मे व्यतीतानि जन्मानि तव चार्जुन तान्यहं वेद सर्वाणि न त्वं वेत्थ परन्तप ॥ ४....</t>
+  </si>
+  <si>
+    <r>
+      <t>श्रीभगवान् बोले-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>हे परंतप अर्जुन ! मेरे और तेरे बहुत-से जन्म हो चुके हैं। उन सबको तू नहीं जानता, किन्तु मैं जानता हूँ|</t>
+    </r>
+  </si>
+  <si>
+    <t>The Lord looked upon Arjuna and replied: Arjuna, the answer to your question is simple. You are forgetting, O Son of Kunti, the both you and I have taken many births in this world together. However, only I, Lord, can remember this; you cannot.</t>
+  </si>
+  <si>
+    <t>Verse 4.6</t>
+  </si>
+  <si>
+    <t>अजोऽपि सन्नव्ययात्मा भूतानामीश्वरोऽपि सन् । प्रकृतिं स्वामधिष्ठाय संभवाम्यात्ममायया ॥ ४.६ ॥</t>
+  </si>
+  <si>
+    <t>मैं अजन्मा और अविनाशीस्वरूप होते हुए भी तथा समस्त प्राणियोंका ईश्वर होते हुए भी अपनी प्रकृतिको अधीन करके अपनी योगमायासे प्रकट होता हूँ|</t>
+  </si>
+  <si>
+    <t>O Arjuna, although birth and death do not exist for Me, since I am the immortal Lord, I appear on earth, by my Divine powers and ability, keeping My nature (Maya) under control.</t>
+  </si>
+  <si>
+    <t>Verse 4.7</t>
+  </si>
+  <si>
+    <t>यदा यदा हि धर्मस्य ग्लानिर्भवति भारत । अभ्युत्थानमधर्मस्य तदात्मानं सृजाम्यहम् ॥ ४.७ ॥</t>
+  </si>
+  <si>
+    <t>हे भारत ! जब-जब धर्मकी हानि और अधर्मकी वृद्धि होती है, तब-तब ही मैं अपने रूपको रचता हूँ अर्थात् साकाररूपसे लोगोंके सम्मुख प्रकट होता हूँ|</t>
+  </si>
+  <si>
+    <t>The Lord declared solemnly unto Arjuna: O Arjuna, whenever good is overcome by evil, or whenever evil manifests itself throughout the world in such a way that good no longer exists. I will always appear on earth.</t>
+  </si>
+  <si>
+    <t>Verse 4.8</t>
+  </si>
+  <si>
+    <t>परित्राणाय साधूनां विनाशाय च दुष्कृताम् । धर्मसंस्थापनार्थाय सम्भवामि युगे युगे ॥ ४.८ ॥</t>
+  </si>
+  <si>
+    <t>साधु पुरुषोंका उद्धार करनेके लिये, पापकर्म करनेवालोंका विनाश करनेके लिये और धर्मकी अच्छी तरहसे स्थापना करनेके लिये मैं युग-युगमें प्रकट हुआ करता हूँ|</t>
+  </si>
+  <si>
+    <t>O Arjuna, I appear on earth from time to time for three main purposes. The first is for the protection and preservation of all that represents good, and of all those pure and saintly people on earth. The second purpose for which I appear on earth is for the destruction and removed and wrong-doers.
+The third purpose is, of course, for the establishment and creation (or recreation) of Dharma (Righteousness or reinstating moral values among people on earth.)</t>
+  </si>
+  <si>
+    <t>Verse 4.10</t>
+  </si>
+  <si>
+    <t>वीतरागभयक्रोधा मन्मया मामुपाश्रिताः । बहवो ज्ञानतपसा पूता मद्भावमागताः ॥ ४.१० ॥</t>
+  </si>
+  <si>
+    <t>पहले भी, जिनके राग, भय और क्रोध सर्वथा नष्ट हो गये थे और जो मुझमें अनन्यप्रेमपूर्वक स्थित रहते थे, ऐसे मेरे आश्रित रहनेवाले बहुत-से भक्त उपर्युक्त ज्ञानरूप तपसे पवित्र होकर मेरे स्वरूपको प्राप्त हो चुके हैं|</t>
+  </si>
+  <si>
+    <t>O Arjuna, if one really to seek refuge and be one with Me, he must totally free himself from passion, fear and anger, seek my protection only, and purify himself with the fire of Gyan (knowledge). If one manages to accomplish these thing, he will be able to become one with Me in mind and body.</t>
+  </si>
+  <si>
+    <t>Verse 4.11</t>
+  </si>
+  <si>
+    <t>ये यथा मां प्रपद्यन्ते तांस्तथैव भजाम्यहम् । मम वर्त्मानुवर्तन्ते मनुष्याः पार्थ सर्वशः ॥ ४.११ ॥</t>
+  </si>
+  <si>
+    <t>हे अर्जुन ! जो भक्त मुझे जिस प्रकार भजते हैं, मैं भी उनको उसी प्रकार भजता हूँ; क्योंकि सभी मनुष्य सब प्रकारसे मेरे ही मार्गका अनुसरण करते हैं|</t>
+  </si>
+  <si>
+    <t>O Arjuna, those people who love, trust and worship Me receive the same love, trust and worship from Me. All wise men follow Me in all respects. They follow my every path.</t>
+  </si>
+  <si>
+    <t>Verse 4.14</t>
+  </si>
+  <si>
+    <t>न मां कर्माणि लिम्पन्ति न मे कर्मफले स्पृहा । इति मां योऽभिजानाति कर्मभिर्न स बध्यते ॥ ४.१४ ॥</t>
+  </si>
+  <si>
+    <t>कर्मोंके फलमें मेरी स्पृहा नहीं है, इसलिये मुझे कर्म लिप्त नहीं करते – इस प्रकार जो मुझे तत्त्वसे जान लेता है, वह भी कर्मोंसे नहीं बँधता|</t>
+  </si>
+  <si>
+    <t>The Lord continued: O Arjuna, since I, the immortal Lord, have no cravings for the fruits of action, I do not desire the reward of Karma. Therefore those who know me well are not affected or bound by Karma (action).</t>
+  </si>
+  <si>
+    <t>Verse 4.18</t>
+  </si>
+  <si>
+    <t>कर्मण्यकर्म यः पश्येदकर्मणि च कर्म यः । स बुद्धिमान्मनुष्येषु स युक्तः कृत्स्नकर्मकृत् ॥ ४.१८ ॥</t>
+  </si>
+  <si>
+    <t>जो मनुष्य कर्ममें अकर्म देखता है और जो अकर्ममें कर्म देखता है, वह मनुष्योंमें बुद्धिमान् है और वह योगी समस्त कर्मोंको करनेवाला है|</t>
+  </si>
+  <si>
+    <t>One who sees action (Karma) in inaction (Akarma), and inaction in action, is a wise man and a great sage. That man who has accomplished all actions is a Yogi.</t>
+  </si>
+  <si>
+    <t>Verse 4.19</t>
+  </si>
+  <si>
+    <t>यस्य सर्वे समारम्भाः कामसंकल्पवर्जिताः । ज्ञानाग्निदग्धकर्माणं तमाहुः पण्डितं बुधाः ॥ ४.१९ ॥</t>
+  </si>
+  <si>
+    <t>जिसके सम्पूर्ण शास्त्रसम्मत कर्म बिना कामना और संकल्पके होते हैं तथा जिसके समस्त कर्म ज्ञानरूप अग्निके द्वारा भस्म हो गये हैं, उस महापुरुषको ज्ञानीजन भी पण्डित कहते हैं|</t>
+  </si>
+  <si>
+    <t>One who does all Karma without desire or attachment for the fruits of his Karma and one whose actions are burnt up in the of Gyan or wisdom, is regarded by even the wise men as a sage.</t>
+  </si>
+  <si>
+    <t>Verse 4.20</t>
+  </si>
+  <si>
+    <t>त्यक्त्वा कर्मफलासङ्गं नित्यतृप्तो निराश्रयः । कर्मण्यभिप्रवृत्तोऽपि नैव किंचित्करोति सः ॥ ४.२० ॥</t>
+  </si>
+  <si>
+    <t>जो पुरुष समस्त कर्मोंमें और उनके फलमें आसक्तिका सर्वथा त्याग करके संसारके आश्रय रहित हो गया है और परमात्मामें नित्य तृप्त है, वह कर्मोंमें भलीभाँति बर्तता हुआ भी वास्तवमें कुछ भी नहीं करता|</t>
+  </si>
+  <si>
+    <t>The Lord proclaimed: He who is totally unattached to the rewards of action, is forever happy and satisfied, who depends on nobody in this world, and is constantly involved in action, is really performing no action at all.</t>
+  </si>
+  <si>
+    <t>Verse 4.23</t>
+  </si>
+  <si>
+    <t>गतसङ्गस्य मुक्तस्य ज्ञानावस्थितचेतसः । यज्ञायाचरतः कर्म समग्रं प्रविलीयते ॥ ४.२३ ॥</t>
+  </si>
+  <si>
+    <t>जिसकी आसक्ति सर्वथा नष्ट हो गयी है, जो देहाभिमान और ममतासे रहित हो गया है, जिसका चित्त निरन्तर परमात्माके ज्ञानमें स्थित रहता है – ऐसा केवल यज्ञसम्पादनके लिये कर्म करनेवाले मनुष्यके सम्पूर्ण कर्म भलीभाँति विलीन हो जाते हैं|</t>
+  </si>
+  <si>
+    <t>Lord Krishna continued: A person who has no attachment to anything whatsoever in this world, whose heart is set on acquiring Gyan (wisdom), who works for the sake of sacrifice, and is a totally liberated person from the world, all actions for this person melt away and are meaningless.</t>
+  </si>
+  <si>
+    <t>Verse 4.31</t>
+  </si>
+  <si>
+    <t>नायं लोकोऽस्त्ययज्ञस्य कुतोऽन्यः कुरुसत्तम ॥ ४.३१ ॥</t>
+  </si>
+  <si>
+    <t>हे कुरुश्रेष्ठ अर्जुन! यज्ञसे बचे हुए अमृतका अनुभव करनेवाले योगीजन सनातन परब्रह्म परमात्माको प्राप्त होते हैं। और यज्ञ न करनेवाले पुरुषके लिये तो यह मनुष्यलोक भी सुखदायक नहीं है, फिर परलोक है कैसे सुखदायक हो सकता है ?</t>
+  </si>
+  <si>
+    <t>O Arjuna, only those people who have sacrificed to achieve wisdom and knowledge of Gyan, go to Brahma, (the creator of all beings and God of Wisdom in the World). Without performing some sort of sacrifice in life, one cannot possibly remain happy in this world, not to mention the afterworl</t>
+  </si>
+  <si>
+    <t>Verse 4.33</t>
+  </si>
+  <si>
+    <t>श्रेयान्द्रव्यमयाद्यज्ञाज्ज्ञानयज्ञः परन्तप । सर्वं कर्माखिलं पार्थ ज्ञाने परिसमाप्यते ॥ ४.३३ ॥</t>
+  </si>
+  <si>
+    <t>हे परंतप अर्जुन ! द्रव्यमय यज्ञकी अपेक्षा ज्ञानयज्ञ अत्यन्त श्रेष्ठ है, तथा यावन्मात्र सम्पूर्ण कर्म ज्ञानमें समाप्त हो जाते हैं|</t>
+  </si>
+  <si>
+    <t>O Arjuna, sacrifice of wisdom (Gyan) is always better than sacrifice of material objects because all actions end with Gyan.</t>
+  </si>
+  <si>
+    <t>Verse 4.35</t>
+  </si>
+  <si>
+    <t>यज्ज्ञात्वा न पुनर्मोहमेवं यास्यसि पाण्डव । येन भूतान्यशेषेण द्रक्ष्यस्यात्मन्यथो मयि ॥ ४.३५ ॥</t>
+  </si>
+  <si>
+    <t>जिसको जानकर फिर तू इस प्रकार मोहको नहीं प्राप्त होगा तथा हे अर्जुन ! जिस ज्ञानके द्वारा तू सम्पूर्ण भूतोंको नि:शेषभावसे पहले अपनेमें’ और पीछे मुझ सच्चिदानन्दघन परमात्मामें देखेगा|</t>
+  </si>
+  <si>
+    <t>The Lord continued:O Arjuna, through Gyan, you will see all beings within yourself, and thereafter, all beings in Me.</t>
+  </si>
+  <si>
+    <t>Verse 4.39</t>
+  </si>
+  <si>
+    <t>श्रद्धावाँल्लभते ज्ञानं तत्परः संयतेन्द्रियः । ज्ञानं लब्ध्वा परां शान्तिमचिरेणाधिगच्छति ॥ ४.३९ ॥</t>
+  </si>
+  <si>
+    <t>जितेन्द्रिय, साधनपरायण और श्रद्धावान् मनुष्य ज्ञानको प्राप्त होता है तथा ज्ञानको प्राप्त होकर वह बिना विलम्बके – तत्काल ही भगवत्प्राप्तिरूप परम – शान्तिको प्राप्त हो जाता है|</t>
+  </si>
+  <si>
+    <t>To abtain Gyan, one must conquer the senses, and develop a real devotion and faith towards the Lord. When one obtains Gyan, he has discovered the key to Supreme peace.</t>
+  </si>
+  <si>
+    <t>Verse 4.40</t>
+  </si>
+  <si>
+    <t>अज्ञश्चाश्रद्दधानश्च संशयात्मा विनश्यति । नायं लोकोऽस्ति न परो न सुखं संशयात्मनः ॥ ४.४० ॥</t>
+  </si>
+  <si>
+    <t>विवेकहीन और श्रद्धारहित संशययुक्त मनुष्य परमार्थसे अवश्य भ्रष्ट हो जाता है। ऐसे संशययुक्त मनुष्यके लिये न यह लोक है, न परलोक है और न सुख ही है|</t>
+  </si>
+  <si>
+    <t>If a person is ignorant of the Knowledge of God, the person who lacks faith in God and the one who is full of doubts in his own self, will undoubtedly be destroyed. If one has doubts, he can never achieve peace and Bliss in the world, nor in the after-world.</t>
+  </si>
+  <si>
+    <t>Eternal Knowledge, Divine Wisdom, Lineage of Teachings, Karmayoga</t>
+  </si>
+  <si>
+    <t>Karmayoga, Divine Knowledge, Spiritual Heritage, Tradition, Eternal Truth</t>
+  </si>
+  <si>
+    <t>You are part of a timeless lineage of wisdom and knowledge that has been passed down through generations. This verse reminds you that the principles of Karmayoga are not just recent ideas but are eternal truths shared by God Himself. By embracing these teachings, you connect with a profound tradition rooted in divine understanding. This knowledge is a guiding light, helping you navigate life's challenges with purpose and clarity. Trust in the authenticity and depth of this wisdom, knowing that it has been tried and tested by sages and leaders before you. By practicing Karmayoga, you honor this lineage and align yourself with the eternal rhythm of life.</t>
+  </si>
+  <si>
+    <t>Divine Knowledge, Spiritual Heritage, Trust in Tradition</t>
+  </si>
+  <si>
+    <t>Imagine yourself at a crossroads, uncertain about the reliability of the values or practices you are trying to follow. This verse reassures you that the path of Karmayoga you are walking on is eternal and time-tested, originating from God Himself. Whether you're leading a team, mentoring someone, or trying to instill values in your family, you can take confidence in the fact that these teachings are steeped in divine wisdom. This encourages you to carry forward the knowledge with sincerity, knowing you are part of a sacred chain of wisdom that inspires trust and action.</t>
+  </si>
+  <si>
+    <t>Divine Mystery, Timelessness of God, Arjuna’s Curiosity, Doubt and Inquiry</t>
+  </si>
+  <si>
+    <t>Divine Knowledge, Questioning Faith, Timeless Nature, God’s Incarnation, Curiosity</t>
+  </si>
+  <si>
+    <t>You might sometimes question the origins or authenticity of teachings that seem beyond the bounds of logic or time. This verse shows that it is natural to seek clarification when faced with apparent contradictions. Just as Arjuna questioned how Krishna, seemingly born in a human form, could have conveyed eternal wisdom to the Sun God, you too can approach your doubts with a spirit of inquiry. Trust that divine truths often transcend human understanding and are revealed through dialogue, reflection, and faith. Seek answers openly, for even questions rooted in doubt can lead to deeper understanding and connection with divine wisdom.</t>
+  </si>
+  <si>
+    <t>Suppose you are trying to reconcile a teaching or principle that seems to conflict with your current understanding of history, science, or personal experience. For instance, while exploring spiritual practices, you might wonder how ancient wisdom applies to modern challenges. This verse encourages you to approach such dilemmas with curiosity and respect, rather than outright rejection. It reassures you that even when teachings seem paradoxical, there is often a deeper layer of truth waiting to be uncovered through inquiry and faith. Like Arjuna, you can seek clarity while maintaining reverence for the source of the knowledge.</t>
+  </si>
+  <si>
+    <t>Questioning Faith, Seeking Clarity, Timeless Wisdom</t>
+  </si>
+  <si>
+    <t>Divine Omniscience, Human Limitation, Cycle of Births, Eternal Wisdom</t>
+  </si>
+  <si>
+    <t>Divine Memory, Human Forgetfulness, Rebirth, Knowledge of the Eternal, Faith in God</t>
+  </si>
+  <si>
+    <t>There are moments in life when you may feel overwhelmed by the vastness of existence or puzzled by events you cannot fully comprehend. This verse reminds you of the divine's omniscience and the limitations of human understanding. While you may not recall the entirety of your journey, trust that the divine wisdom guiding you is aware of all that was, is, and will be. Let this faith anchor you, especially when faced with uncertainty. Accept the guidance of a higher power that sees the bigger picture and leads you toward your true purpose.</t>
+  </si>
+  <si>
+    <t>Imagine grappling with a sense of déjà vu or a profound connection to a place, person, or idea, but being unable to explain why. You might also question why certain events happen to you while feeling disconnected from their larger context. This verse offers comfort, teaching you that while your memory is finite, the divine remembers every moment of your existence and has a purpose for you. Trusting in this divine knowledge allows you to navigate life with more peace and confidence, even when the reasons behind events remain unclear.</t>
+  </si>
+  <si>
+    <t>Faith, Divine Guidance, Understanding Life’s Mysteries</t>
+  </si>
+  <si>
+    <t>Divine Incarnation, Immortality, Maya (Illusion), Lord’s Supremacy, Purposeful Manifestation</t>
+  </si>
+  <si>
+    <t>Divine Power, Incarnation, Eternal Lord, Yoga Maya, Control Over Nature</t>
+  </si>
+  <si>
+    <t>Even though the divine is beyond birth and death, there are times when it manifests in the material world to guide and protect. This reminds you that there is a purpose behind every divine intervention. When you feel lost or disconnected, trust in the fact that the divine operates beyond human limitations and appears in your life in ways you might not recognize at first. Embrace the idea that divine wisdom is ever-present, working for your welfare, even if it transcends your understanding.</t>
+  </si>
+  <si>
+    <t>You might be facing a situation where you question why extraordinary help or inspiration appears just when you need it the most. For example, receiving timely guidance from a mentor, encountering a book or message that deeply resonates with your struggles, or feeling an unexplainable inner strength in a difficult moment. This verse encourages you to see these as manifestations of divine intervention, a reminder that the eternal Lord transcends normal rules to provide help and guidance when the time is right.</t>
+  </si>
+  <si>
+    <t>Faith, Divine Interventions, Spiritual Wisdom</t>
+  </si>
+  <si>
+    <t>Divine Intervention, Restoration of Dharma, Fight Against Evil, Righteousness</t>
+  </si>
+  <si>
+    <t>Dharma, Adharma, Divine Purpose, Incarnation, Moral Order</t>
+  </si>
+  <si>
+    <t>This verse reassures you that divine intervention occurs when the balance between good and evil is disturbed. When unrighteousness seems overwhelming and justice appears lost, remember that the divine manifests to restore order and righteousness. This can be a call to align yourself with moral principles and actively support efforts that uphold justice and goodness. Trust that even in times of great turmoil, the forces of righteousness are not abandoned.</t>
+  </si>
+  <si>
+    <t>You may find yourself in a scenario where unethical practices dominate your environment—such as corruption in the workplace, injustice in your community, or moral dilemmas within your family. This verse serves as a reminder to act with integrity and patience, knowing that, in the grand scheme, righteousness will prevail. It also offers solace that when situations become unbearable, help—divine or otherwise—will arrive to restore balance.</t>
+  </si>
+  <si>
+    <t>Moral Guidance, Resilience, Faith in Justice</t>
+  </si>
+  <si>
+    <t>Divine Purpose, Protection of the Good, Destruction of the Evil, Establishment of Righteousness</t>
+  </si>
+  <si>
+    <t>Divine Intervention, Protection, Righteousness, Justice, Moral Order</t>
+  </si>
+  <si>
+    <t>This verse reminds you that in times of moral decay and when evil seems to be overpowering, divine intervention restores balance. The divine appears for the protection of the virtuous, the destruction of wrongdoers, and the establishment of righteousness. It encourages you to hold fast to your values, knowing that righteousness will always be defended and restored. Even when circumstances appear bleak, trust that there is a higher power at work, ensuring that good prevails in the end.</t>
+  </si>
+  <si>
+    <t>You might be witnessing a situation where moral values are being compromised—whether it's in your workplace, among your peers, or within your society. You may feel frustrated, seeing the prevalence of bad actions or attitudes. This verse offers encouragement, reminding you that divine forces are at play, and justice will be served. Keep upholding righteousness in your actions, as this is part of the larger cosmic purpose. When facing unjust situations, trust that divine intervention will restore balance when the time is right.</t>
+  </si>
+  <si>
+    <t>Justice, Faith, Righteousness, Divine Support</t>
+  </si>
+  <si>
+    <t>Freedom from Attachments, Divine Knowledge, Purification, Surrender to God</t>
+  </si>
+  <si>
+    <t>Devotion, Purification, Knowledge, Surrender, Inner Peace</t>
+  </si>
+  <si>
+    <t>To truly connect with the divine, you must let go of the attachments of passion, fear, and anger. By surrendering yourself completely to the divine and seeking protection in that surrender, you purify yourself. The process of purification comes through the fire of knowledge, which helps cleanse your mind, actions, and intentions. The more you strive to be free from these worldly distractions, the closer you will get to realizing your true nature and your connection to the divine.</t>
+  </si>
+  <si>
+    <t>In your current life, you may be overwhelmed by emotional turmoil—whether it’s the stress of your job, personal conflicts, or inner struggles. Fear, anger, or attachment to outcomes might be clouding your peace of mind. This verse encourages you to focus on releasing these emotions, surrendering your worries, and seeking inner peace through knowledge and devotion. When facing challenges, remember that through surrender to a higher power and a focus on spiritual growth, you can transcend these emotional barriers and achieve a deeper sense of peace and connection with your purpose.</t>
+  </si>
+  <si>
+    <t>Spiritual Practice, Inner Peace, Emotional Balance, Devotion</t>
+  </si>
+  <si>
+    <t>Divine Reciprocity, Devotion, Surrender, Divine Guidance</t>
+  </si>
+  <si>
+    <t>Faith, Divine Love, Worship, Surrender, Divine Path</t>
+  </si>
+  <si>
+    <t>When you approach God with love, trust, and devotion, the divine reciprocates with the same. This verse teaches you that the path to divine connection is based on mutual respect and alignment. If you surrender with complete faith and follow the divine will, you will receive divine grace and guidance in return. Your actions, thoughts, and feelings are reflections of how the divine interacts with you.</t>
+  </si>
+  <si>
+    <t>In moments when you feel disconnected or unsure of your spiritual path, remember that your relationship with the divine is built on the same energy that you offer. Whether you're seeking guidance, peace, or strength, know that by trusting in the divine and approaching your journey with devotion, you will receive the same love and support in return. If you embrace the divine with sincerity, the divine will reciprocate, guiding you along the right path.</t>
+  </si>
+  <si>
+    <t>Spiritual Practice, Divine Relationship, Surrender, Faith</t>
+  </si>
+  <si>
+    <t>You may find yourself stressed or burdened by the expectations and outcomes of your work or actions. Whether in professional, personal, or spiritual contexts, the desire for specific results can create anxiety and tension. This verse encourages you to shift your focus from outcomes to the quality of your actions. By practicing detachment from the fruits of your labor and focusing on the process itself, you will experience greater peace and liberation from worldly attachments.</t>
+  </si>
+  <si>
+    <t>Spiritual Growth, Karma, Detachment, Liberation</t>
+  </si>
+  <si>
+    <t>Understanding the nature of the divine is key to freedom from the entanglements of karma. The Lord is detached from the fruits of action, and anyone who aligns themselves with this understanding remains unaffected by the results of their actions. By realizing that true liberation lies in acting without attachment to outcomes, you can free yourself from the cycle of karma. It is not the actions themselves but the attachment to results that binds you.</t>
+  </si>
+  <si>
+    <t>Karma, Detachment, Divine Knowledge, Freedom, Self-realization, Spiritual Liberation</t>
+  </si>
+  <si>
+    <t>Detachment from Results, Divine Understanding, Freedom from Karma, Self-realization</t>
+  </si>
+  <si>
+    <t>This verse emphasizes the importance of understanding the true nature of action and inaction. It invites you to see beyond the surface and perceive that true wisdom lies in recognizing the divine order in both action and inaction. A Yogi, or spiritually enlightened individual, is one who perceives every action and inaction as part of the greater cosmic plan. By aligning with this understanding, you can perform your duties with a calm and detached mind, unaffected by external outcomes.</t>
+  </si>
+  <si>
+    <t>Action, Inaction, Wisdom, Yogi, Karma, Perception, Spiritual Insight, Enlightenment</t>
+  </si>
+  <si>
+    <t>Perception of Action and Inaction, Wisdom, Yogic Insight, Spiritual Awareness</t>
+  </si>
+  <si>
+    <t>In times of uncertainty or decision-making, you may often find yourself overthinking or struggling with the choice between action and inaction. This verse advises you to recognize that sometimes, not acting in the usual sense may be the right course, and that even in apparent inaction, the seeds of action may be planted. It encourages you to trust in the larger wisdom of life, allowing the universe to guide your steps, and to see every situation as a form of action in its own right, depending on how you perceive and approach it.</t>
+  </si>
+  <si>
+    <t>Spiritual Wisdom, Action and Inaction, Yogi’s Path, Self-realization</t>
+  </si>
+  <si>
+    <t>Desireless Action, Knowledge, Wisdom, Selfless Service, Spiritual Enlightenment</t>
+  </si>
+  <si>
+    <t>Desireless Action, Knowledge, Wisdom, Selflessness, Detachment, Karma, Sage, Enlightenment</t>
+  </si>
+  <si>
+    <t>This verse teaches the importance of performing actions without attachment to the outcomes. The true mark of wisdom lies in the ability to act with detachment, without personal desires or selfish goals, while having complete knowledge of one's true nature. When all actions are driven by selfless service and guided by wisdom, they are purified and transformed. The wise recognize such an individual as a sage, for their actions are beyond personal gain, and their heart is free from attachment.</t>
+  </si>
+  <si>
+    <t>You may find yourself constantly striving for results, either in your career or personal life. The verse encourages you to transcend the desire for outcomes. By focusing on the purity of your actions and aligning them with higher wisdom, you will experience peace and contentment, regardless of external results. This approach leads to freedom from stress, anxiety, and attachment to success, fostering a deeper sense of fulfillment. In times of overwhelming expectations or pressure to succeed, practicing desireless action can bring calm and clarity to your mind.</t>
+  </si>
+  <si>
+    <t>Spiritual Wisdom, Selfless Action, Knowledge, Detachment, Personal Growth</t>
+  </si>
+  <si>
+    <t>Detachment, Selflessness, True Contentment, Spiritual Freedom, Unattached Action</t>
+  </si>
+  <si>
+    <t>Detachment, Satisfaction, Unattached Action, Freedom, Inner Peace, Selflessness, Karma, Spiritual Wisdom</t>
+  </si>
+  <si>
+    <t>This verse teaches that true contentment comes from detachment and spiritual fulfillment, not from the fruits of actions. A person who is free from attachment to outcomes, who does not rely on worldly gains, and who remains constantly absorbed in the divine, is truly liberated. Such a person acts in the world but remains untouched by it, realizing that the essence of action is in its selfless nature rather than in the results. This state of being leads to inner peace, allowing the individual to perform actions without being burdened by them.</t>
+  </si>
+  <si>
+    <t>n your professional or personal life, you might feel caught in the race for results, constantly striving for recognition or achievement. The verse invites you to release the attachment to the outcomes and instead focus on the process, performing your duties with dedication but without expectation. This shift in mindset will bring you greater peace, as you will no longer be enslaved by the need for external validation. Even when engaging in demanding tasks or facing pressure, you will find fulfillment in the work itself, detached from the need for rewards.</t>
+  </si>
+  <si>
+    <t>Spiritual Wisdom, Selflessness, Karma, Personal Growth, Peace of Mind</t>
+  </si>
+  <si>
+    <t>Detachment, Wisdom, Selflessness, Spiritual Freedom, Purposeful Action</t>
+  </si>
+  <si>
+    <t>Detachment, Selfless Action, Wisdom, Knowledge, Sacrifice, Liberation, Karma</t>
+  </si>
+  <si>
+    <t>To find true freedom from the cycle of attachment and action, you must work with a heart full of wisdom and without the desire for rewards. Shift your focus from personal gains to the greater good, offering your actions as a form of sacrifice, not for selfish purposes. When you dedicate your work to the higher purpose of growth, self-realization, or service, you will experience liberation from the bondage of karma. This practice will lead you to deeper wisdom and peace, where your actions no longer bind you but instead become a way of expressing your higher self.</t>
+  </si>
+  <si>
+    <t>You may be facing the temptation to become overly attached to your achievements or outcomes, feeling driven by a need for validation or reward. To overcome this, remind yourself to perform your actions as a form of service or devotion, not seeking personal benefit but aiming for the greater good. When you approach life with this mindset, whether at work or in relationships, you will feel lighter, less burdened, and more connected to your true self. Instead of being weighed down by expectations, your efforts will feel more fulfilling and purposeful.</t>
+  </si>
+  <si>
+    <t>Selflessness, Karma, Personal Growth, Spiritual Guidance</t>
+  </si>
+  <si>
+    <t>Sacrifice, Selflessness, Wisdom, Fulfillment, Spiritual Duty</t>
+  </si>
+  <si>
+    <t>Sacrifice, Purposeful Living, Spiritual Fulfillment, Dharma, Selflessness</t>
+  </si>
+  <si>
+    <t>To achieve true happiness and fulfillment in this life and beyond, embrace the principle of sacrifice. Sacrifice here does not imply mere rituals but involves selfless actions, offering your time, effort, and resources toward a greater purpose. By giving up attachment to selfish desires and contributing to the well-being of others or the world, you connect with a higher state of existence. Understand that life’s rewards come from what you offer, not from what you hoard. In this way, you align yourself with universal principles and experience both worldly and spiritual joy.</t>
+  </si>
+  <si>
+    <t>You might be struggling with finding meaning in your daily routine or feeling unfulfilled despite material success. This verse encourages you to reflect on how you can dedicate your efforts to something beyond yourself, such as helping others, pursuing knowledge, or serving a greater cause. For example, if you’re dissatisfied in your career, consider how your work can positively impact others. Sacrificing personal comfort for the benefit of family, community, or a noble cause can bring a deeper sense of purpose and joy.</t>
+  </si>
+  <si>
+    <t>Selflessness, Spiritual Fulfillment, Purposeful Living</t>
+  </si>
+  <si>
+    <t>Knowledge, Wisdom, Sacrifice, Prioritization, Spiritual Growth</t>
+  </si>
+  <si>
+    <t>Wisdom over Material, Knowledge as Power, Spiritual Development, Sacrifice, Higher Purpose</t>
+  </si>
+  <si>
+    <t>Focus on gaining and sharing knowledge as the highest form of sacrifice. Material offerings or external rituals are valuable, but they are incomplete without the deeper understanding that comes from wisdom. True growth happens when you cultivate awareness, question deeper truths, and seek to understand the purpose behind your actions. Let your efforts aim not just at external success but at inner growth and enlightenment. By prioritizing knowledge, you create a foundation for meaningful actions that resonate with your higher self.</t>
+  </si>
+  <si>
+    <t>If you find yourself consumed by external pursuits, like accumulating wealth or status, this verse invites you to reflect on whether those efforts align with deeper wisdom. For example, if you're dedicating excessive time to material goals at the cost of self-development, it's time to reorient your priorities. Invest in learning, whether through books, mentorship, or introspection, to better understand your purpose and actions. This wisdom will guide you toward a balanced and meaningful life.</t>
+  </si>
+  <si>
+    <t>Prioritization, Knowledge Acquisition, Inner Growth</t>
+  </si>
+  <si>
+    <t>By gaining profound knowledge (Gyan), you will transcend the illusions that cloud your understanding of life and relationships. This wisdom will enable you to recognize the interconnectedness of all beings, seeing them as reflections of yourself. Eventually, you will realize that all beings, including yourself, exist within the divine essence of God. This realization fosters a sense of unity, compassion, and deep inner peace, helping you navigate life without the bondage of confusion or attachment. Embrace this path of self-discovery and align your actions and thoughts with this higher understanding.</t>
+  </si>
+  <si>
+    <t>Self-Realization, Unity, Higher Knowledge, Dissolution of Illusion, Oneness</t>
+  </si>
+  <si>
+    <t>Enlightenment, Wisdom, Self-Discovery, Connection to the Divine, Liberation from Ignorance</t>
+  </si>
+  <si>
+    <t>You might be struggling with feelings of isolation, conflict, or a sense of disconnect in your relationships or workplace. For instance, in a team project where opinions clash, the knowledge that everyone shares a deeper connection can help you approach conflicts with empathy and understanding. By adopting this perspective, you cultivate harmony and a greater sense of purpose in your actions, recognizing that all efforts contribute to a higher unity.</t>
+  </si>
+  <si>
+    <t>Self-Realization, Interpersonal Harmony, Spiritual Growth</t>
+  </si>
+  <si>
+    <t>Faith, Discipline, Knowledge, Inner Peace, Spiritual Practice</t>
+  </si>
+  <si>
+    <t>Devotion, Self-Control, Wisdom, Peace, Faith</t>
+  </si>
+  <si>
+    <t>To achieve true wisdom (Gyan), focus on self-discipline and controlling your senses. This requires genuine faith and dedication toward a higher purpose or the divine. Cultivate unwavering trust in your path and persist with determination. When you attain this wisdom, it will guide you to supreme peace, freeing you from restlessness, confusion, and worldly anxieties. This inner peace will not just bring clarity but also help you lead a more harmonious and fulfilling life.</t>
+  </si>
+  <si>
+    <t>You may be struggling with a restless mind or distractions, such as balancing professional ambitions and personal relationships. For example, if you're pursuing career goals but feel emotionally unsettled, prioritize mindfulness and develop faith in your abilities and the process. By managing your desires and focusing on purposeful actions, you can achieve clarity and contentment, ultimately finding peace amidst life's challenges.</t>
+  </si>
+  <si>
+    <t>Personal Growth, Spiritual Discipline, Inner Peace</t>
+  </si>
+  <si>
+    <t>Faith, Certainty, Wisdom, Peace, Consequences of Doubt</t>
+  </si>
+  <si>
+    <t>Doubt, Ignorance, Faithlessness, Consequences, Inner Peace</t>
+  </si>
+  <si>
+    <t>Doubt and lack of faith can lead to confusion and suffering. To find peace and fulfillment in life, you must trust in your path and strive to gain clarity through self-awareness and learning. Ignorance of your purpose or higher truths can create insecurities, but resolving doubts with knowledge and faith will guide you to a life of meaning and contentment. Cultivate inner trust and let go of excessive skepticism, as it obstructs your growth and happiness in both this life and beyond.</t>
+  </si>
+  <si>
+    <t>Imagine you're considering a major life decision, such as switching careers or starting a new relationship, but you're plagued by self-doubt and fear of failure. This verse reminds you that indecision and lack of faith can paralyze progress. Take proactive steps to learn more about your choices, seek guidance from trusted mentors, and develop confidence in your ability to overcome challenges. By trusting yourself and your journey, you pave the way for growth and peace.</t>
+  </si>
+  <si>
+    <t>Overcoming Doubt, Faith Development, Life Decisions</t>
+  </si>
+  <si>
+    <t>Viswarupa-Darsana Yoga</t>
+  </si>
+  <si>
+    <t>Chapter 11</t>
+  </si>
+  <si>
+    <t>Verse 11.16</t>
+  </si>
+  <si>
+    <t>अनेकबाहूदरवक्त्रनेत्रं पश्यामि त्वां सर्वतोऽनन्तरूपम् । नान्तं न मध्यं न पुनस्तवादिं पश्यामि विश्...</t>
+  </si>
+  <si>
+    <t>हे सम्पूर्ण विश्व के स्वामिन् ! आपको अनेक भुजा, पेट, मुख, और नेत्रों से युक्त्त तथा सब ओर से अनन्त रूपों वाला देखता हूँ । हे विश्व रूप ! मैं आपके न अन्त को देखता हूँ न मध्य को, और न आदि को ही |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Arjuna explained to the Lord:                                                                                                                         O Krishna, I behold your image as being never-ending, with countless arms, faces, bellies, eyes, and mouth. I sense the divinity and power coming from all parts of Your Superior Being. O Lord of Lords, I am unable to see Thy beginning, middle or end for You are of infinite form!</t>
+  </si>
+  <si>
+    <t>Verse 11.17</t>
+  </si>
+  <si>
+    <t>किरीटिनं गदिनं चक्रिणं च तेजोराशिं सर्वतो दीप्तिमन्तम् । पश्यामि त्वां दुर्निरीक्ष्यं समन्ता- द्द...</t>
+  </si>
+  <si>
+    <t>आप को मैं मुकुट युक्त्त, गदा युक्त्त और चक्र युक्त्त तथा सब ओर से प्रकाशमान तेज के पुञ्ज, प्रज्वलित अग्नि और सूर्य के सद्र्श ज्योति युक्त्त, कठिनता से देखे जाने योग्य और सब ओर से अप्रमेय स्वरूप देखता हूँ|</t>
+  </si>
+  <si>
+    <t>I can clearly see the crown, sceptre and discus glowing upon Your lotus body like a mass of intense light. Your dazzling image is difficult for me to behold and believe, yet I still see You in Your full brilliance as the eternal, flaming fire, the blinding sun and truly as one of a kind.</t>
+  </si>
+  <si>
+    <t>Verse 11.18</t>
+  </si>
+  <si>
+    <t>त्वमक्षरं परमं वेदितव्यं त्वमस्य विश्वस्य परं निधानम् । त्वमव्ययः शाश्वतधर्मगोप्ता सनातनस्त्वं पु...</t>
+  </si>
+  <si>
+    <t>आप ही जानने योग्य परम अक्षर अर्थात् परब्रह्म परमात्मा हैं, आप ही इस जगत् के परम आश्रय हैं, आप ही अनादि धर्म के रक्षक है और आप ही अविनाशी सनातन पुरुष हैं । ऐसा मेरा मत हैं|</t>
+  </si>
+  <si>
+    <t>You are immortal, imperishable and never ending. You are the height of knowledge and the Supreme to be realized by all. You are the support of this large universe. I think you to be the guardian and ruler of the eternal law of purity and virtue. You are the ever-lasting Spirit who is, and always has been, at the very beginning of all things in the universe.</t>
+  </si>
+  <si>
+    <t>Moksha-Sanyasa Yoga</t>
+  </si>
+  <si>
+    <t>Chapter 18</t>
+  </si>
+  <si>
+    <t>Verse 18.73</t>
+  </si>
+  <si>
+    <t>अर्जुन उवाच । नष्टो मोहः स्मृतिर्लब्धा त्वत्प्रसादान्मयाच्युत स्थितोऽस्मि गतसन्देहः करिष्ये वचनं त...</t>
+  </si>
+  <si>
+    <r>
+      <t>अर्जुन बोले </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>—-हे अच्युत ! आपकी कृपा से मेरा मोह नष्ट हो गया और मैंने स्मृति प्राप्त कर ली है, अब मैं संशय रहित होकर स्थित हूँ, अत: आपकी आज्ञा का पालन करूँगा ।</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arjuna replied to the Almighty Krishna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>: By your wonderful Grace, Dear Lord and Master of the Universe, I have discovered this light in my mind and soul. My illusions no longer remain with Me. My faith in You is strong, O Great Lord Krishna. I shall devote my very life to following your advice and instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verse 18.54</t>
+  </si>
+  <si>
+    <t>ब्रह्मभूतः प्रसन्नात्मा न शोचति न काङ्क्षति । समः सर्वेषु भूतेषु मद्भक्तिं लभते पराम् ॥ १८.५४ ॥</t>
+  </si>
+  <si>
+    <t>फिर वह सच्चिदानन्दधन ब्रह्म में एकीभाव से स्थित, प्रसन्न मन वाला योगी न तो किसी के लिये शोक करता है और न किसी की आकाँक्षा ही करता है । ऐसा समस्त प्राणियों में सम भाव वाला योगी मेरी परा भक्त्ति को प्राप्त हो जाता है ।</t>
+  </si>
+  <si>
+    <t>This being becomes one with God (or the Supreme Brahman), and his soul experiences true joy, peace and bliss. He no longer feels any desire for material things nor does he recognize any grief. He extends his love to all creation in this world and shows supreme love and unfailing devotion to Me, the Lord of all.</t>
+  </si>
+  <si>
+    <t>Verse 18.55</t>
+  </si>
+  <si>
+    <t>भक्त्या मामभिजानाति यावान्यश्चास्मि तत्त्वतः । ततो मां तत्त्वतो ज्ञात्वा विशते तदनन्तरम् ॥ १८.५५ ॥</t>
+  </si>
+  <si>
+    <t>उस परा भक्त्ति के द्वारा वह मुझ परमात्मा को, मैं जो हूँ और जितना हूँ, ठीक वैसा का वैसा तत्त्व से जान लेता है ; तथा उस भक्त्ति से मुझको तत्त्व से जान कर तत्काल ही मुझ में प्रविष्ट हो जाता है ।</t>
+  </si>
+  <si>
+    <t>One can only fully understand Me, the Supreme Spirit, as I truly am, by pouring out his pure love and devotion to Me. When this being has truly realized and understood Me, in the end, he enters into and becomes a part of Me, the Supreme Soul.</t>
+  </si>
+  <si>
+    <t>Verse 18.56</t>
+  </si>
+  <si>
+    <t>सर्वकर्माण्यपि सदा कुर्वाणो मद्व्यपाश्रयः । मत्प्रसादादवाप्नोति शाश्वतं पदमव्ययम् ॥ १८.५६ ॥</t>
+  </si>
+  <si>
+    <t>मेरे परायण हुआ योगी तो सम्पूर्ण कर्मों को सदा करता हुआ भी मेरी कृपा से सनातन अविनाशी परम पद को प्राप्त हो जाता है ।</t>
+  </si>
+  <si>
+    <t>While engaged in whatever task a person has been prescribed, a person can task refuge in Me, and with My Divine Grace and Protection, a person, can easily reach the most Supreme and Eternal Abode where I reside.</t>
+  </si>
+  <si>
+    <t>Verse 18.57</t>
+  </si>
+  <si>
+    <t>चेतसा सर्वकर्माणि मयि संन्यस्य मत्परः । बुद्धियोगमुपाश्रित्य मच्चित्तः सततं भव ॥ १८.५७ ॥</t>
+  </si>
+  <si>
+    <t>सब कर्मों को मन से मुझ में अर्पण करके तथा सम बुद्भि रूप योग को अवलम्बन करके मेरे परायण और निरन्तर मुझ में चित्त वाला हो ।</t>
+  </si>
+  <si>
+    <t>O Arjuna, if one truly offers and dedicates, with his heart, all of his actions to Me, depending on Me for the results of his actions; realizes that the results of his actions lie in My hands alone; sees Me as the ultimate result of his love, devotion and meditation, in the end his soul combines with Mine for eternity.</t>
+  </si>
+  <si>
+    <t>Verse 18.58</t>
+  </si>
+  <si>
+    <t>मच्चित्तः सर्वदुर्गाणि मत्प्रसादात्तरिष्यसि । अथ चेत्त्वमहंकारान्न श्रोष्यसि विनङ्क्ष्यसि ॥ १८.५८ ॥</t>
+  </si>
+  <si>
+    <t>उपर्युक्त्त प्रकार से मुझ में चित्त वाला होकर तू मेरी कृपा से समस्त संकटों को अनायास ही पार कर जायगा और यदि अहंकार के कारण मेरे वचनों को न सुनेगा तो नष्ट हो जायगा अर्थात् परमार्थ से भ्रष्ट हो जायगा ।</t>
+  </si>
+  <si>
+    <t>O Arjuna, a person who constantly fixes all his thoughts and meditations upon Me, by My Grace, overcomes all the dangers and difficulties, that he encounters in his lifetime. However, he who constantly only thinks about himself, develops a false ego, and does not heed My Divine Words of Wisdom, is lost and eventually shall perish.</t>
+  </si>
+  <si>
+    <t>Verse 18.59</t>
+  </si>
+  <si>
+    <t>यदहंकारमाश्रित्य न योत्स्य इति मन्यसे । मिथ्यैष व्यवसायस्ते प्रकृतिस्त्वां नियोक्ष्यति ॥ १८.५९ ॥</t>
+  </si>
+  <si>
+    <t>जो तू अहंकार का आश्रय लेकर यह मान रहा है कि ‘मैं युद्ध नहीं करूँगा’ तेरा यह निश्चय मिथ्या है ; क्योंकि तेरा स्वभाव तुझे जबर्दस्ती युद्ध में लगा देगा ।</t>
+  </si>
+  <si>
+    <t>If you do not fight the battle which you are destined to fight and you disobey My instructions, I shall consider this act to be one of extreme vanity and misguidance. However, O Son of Kunti, you will be impelled into warfare with your enemies by your very own nature.</t>
+  </si>
+  <si>
+    <t>Verse 18.47</t>
+  </si>
+  <si>
+    <t>श्रेयान्स्वधर्मो विगुणः परधर्मात्स्वनुष्ठितात् । स्वभावनियतं कर्म कुर्वन्नाप्नोति किल्बिषम् ॥ १८.४७...</t>
+  </si>
+  <si>
+    <t>अच्छी प्रकार आचरण किये हुए दूसरे के धर्म से गुणरहित भी अपना धर्म श्रेष्ठ है ;क्योंकि स्वभाव से नियत किये हुए स्वधर्म रूप कर्म को करता हुआ मनुष्य पाप को नहीं प्राप्त होता ।</t>
+  </si>
+  <si>
+    <t>O Arjuna, it is far better to perform one’s own tasks imperfectly rather than to perform someone else’s tasks with perfection. When a man does the work that is prescribed to him, no sins or sinful desires can affect this man.</t>
+  </si>
+  <si>
+    <t>Verse 18.48</t>
+  </si>
+  <si>
+    <t>सहजं कर्म कौन्तेय सदोषमपि न त्यजेत् । सर्वारम्भा हि दोषेण धूमेनाग्निरिवावृताः ॥ १८.४८ ॥</t>
+  </si>
+  <si>
+    <t>अतएव हे कुन्ती पुत्र ! दोष युक्त्त होने पर भी सहज कर्म को नहीं त्यागना चाहिये ; क्योंकि धुऍ से अग्नि की भाँति सभी कर्म किसी न किसी दोष से युक्त्त हैं ।</t>
+  </si>
+  <si>
+    <t>A man should never foresake his own tasks, even if he cannot complete them in full perfection, simply because it is a known fact that every (human) endeavour consists of some fault or imperfection just as all fire consists of smoke.</t>
+  </si>
+  <si>
+    <t>Divine Power, Infinite Nature of God, Awe and Reverence</t>
+  </si>
+  <si>
+    <t>Divinity, Boundlessness, Perception of God, Reverence, Humility</t>
+  </si>
+  <si>
+    <t>This verse highlights the boundless and incomprehensible nature of the Divine. In moments when life overwhelms you with its vastness or complexities, remind yourself of the infinite possibilities and forces at play. Accept that some aspects of existence are beyond human understanding and embrace the humility it brings. Surrendering to this higher wisdom allows you to align with your purpose and draw strength from the limitless energy around you.</t>
+  </si>
+  <si>
+    <t>Suppose you're in a situation where you feel dwarfed by the magnitude of your challenges, such as managing a demanding career, family responsibilities, or an uncertain future. This verse encourages you to recognize that while the Divine's scope is vast and infinite, its presence is also a source of support and guidance. Trust in this higher power, knowing that even when you cannot comprehend the entirety of your path, it is being shaped by something greater than yourself.</t>
+  </si>
+  <si>
+    <t>Perspective on Divinity, Managing Overwhelm, Spiritual Reflection</t>
+  </si>
+  <si>
+    <t>Divine Majesty, Splendor, Awe-Inspiring Vision, Limitlessness</t>
+  </si>
+  <si>
+    <t>Divinity, Radiance, Strength, Reverence, Spiritual Awe</t>
+  </si>
+  <si>
+    <t>This verse reveals the overwhelming brilliance and majesty of the Divine. In your life, when you face awe-inspiring or overwhelming moments, let them serve as reminders of the greater power guiding the universe. Acknowledge that there are forces beyond human comprehension, and this realization can instill both humility and strength. Seek the divine light within yourself to guide you through challenges, understanding that you are part of this limitless radiance.</t>
+  </si>
+  <si>
+    <t>Imagine you are standing on the verge of a major life event, like addressing a massive audience, starting a new venture, or making a life-altering decision. The sheer magnitude of the moment might feel daunting. Reflecting on this verse, see the brilliance of the Divine within and around you. Trust that you are a fragment of this infinite force, and its light will illuminate your path even in the most challenging circumstances.</t>
+  </si>
+  <si>
+    <t>Inner Strength, Spiritual Guidance, Facing Overwhelming Situations</t>
+  </si>
+  <si>
+    <t>Eternal Nature of the Divine, Ultimate Knowledge, Guardian of Righteousness, Foundation of the Universe</t>
+  </si>
+  <si>
+    <t>Immortality, Divinity, Eternal Law, Virtue, Supreme Reality</t>
+  </si>
+  <si>
+    <t>This verse emphasizes the eternal and imperishable nature of the Divine, which serves as the ultimate source of support and guidance. In life, challenges and uncertainties can shake your resolve, but reflecting on the eternal and unchanging principles of righteousness (Dharma) can provide stability and clarity. Align yourself with these timeless virtues and values, knowing they are guarded and upheld by a higher power. Seek this unshakable foundation as a source of strength and wisdom in times of doubt.</t>
+  </si>
+  <si>
+    <t>Ethical Decision-Making, Inner Peace, Aligning with Dharma</t>
+  </si>
+  <si>
+    <t>you are at a crossroads in your life, needing to make a decision that tests your moral integrity, like standing against corruption in the workplace or choosing between personal gain and ethical action. This verse encourages you to root your choices in eternal virtues, knowing that these principles are timeless and protected by the Divine. Trust that aligning with Dharma ensures lasting fulfillment and peace, even if the path seems challenging initially.</t>
+  </si>
+  <si>
+    <t>Spiritual Clarity, Transformation, Faith in Divine Guidance</t>
+  </si>
+  <si>
+    <t>Overcoming Confusion, Divine Grace, Surrender, Inner Peace</t>
+  </si>
+  <si>
+    <t>In times of confusion or doubt, seek clarity through sincere reflection and trust in divine guidance. Just as Arjuna overcame his delusions by surrendering to Krishna's wisdom, you too can transcend the clouds of uncertainty by embracing faith and wisdom. Trust in the process of spiritual awakening, where clarity will gradually replace confusion. Whenever you find yourself lost, turn inward, relying on the grace of a higher power, and commit to following the path of righteousness laid before you.</t>
+  </si>
+  <si>
+    <t>If you're feeling torn between conflicting priorities—whether personal, professional, or emotional—this verse serves as a reminder to clear your mind and heart. Through faith and guidance, the fog of confusion will lift, just as it did for Arjuna. When in doubt, focus on aligning with a higher purpose and remain steadfast in your decision-making, knowing that the right answers will emerge once you free yourself from inner conflict.</t>
+  </si>
+  <si>
+    <t>Overcoming Doubts, Clarity, Spiritual Guidance</t>
+  </si>
+  <si>
+    <t>Inner Peace, Devotion, Equanimity</t>
+  </si>
+  <si>
+    <t>Brahman Realization, Spiritual Joy, Unwavering Devotion, Universal Love</t>
+  </si>
+  <si>
+    <t>To experience true peace and bliss, align yourself with the divine essence of Brahman, the eternal and changeless reality. By cultivating a sense of equanimity—where you are neither attached to desires nor burdened by grief—you open yourself to the highest form of devotion. Focus on seeing the divine in all beings, maintaining a state of inner peace, and offering your actions in service to the highest good, without attachment to the outcomes. This leads to the ultimate realization of the self and divine love.</t>
+  </si>
+  <si>
+    <t>If you're feeling burdened by life's ups and downs—whether through personal loss, unmet desires, or worldly distractions—this verse offers a path to inner freedom. When you surrender to the truth of the eternal self and see beyond the temporary fluctuations of life, you achieve peace. Approach your daily interactions with love, seeing the divine in everyone, and remain unattached to outcomes. By doing so, you will find an unshakeable peace that no worldly circumstance can disturb.</t>
+  </si>
+  <si>
+    <t>Spiritual Growth, Devotion, Peace of Mind</t>
+  </si>
+  <si>
+    <t>Divine Realization, Devotion, Oneness with God</t>
+  </si>
+  <si>
+    <t>Pure Devotion, Supreme Knowledge, Spiritual Union</t>
+  </si>
+  <si>
+    <t>To truly understand the Divine, you must approach with pure devotion and love. When you dedicate your heart and soul in worship and surrender, you will come to know God in His truest form. This deep understanding leads to oneness with the Supreme, where you no longer see yourself as separate but as part of the Divine. By practicing this devotion, you will experience a transformation that brings you closer to the ultimate truth.</t>
+  </si>
+  <si>
+    <t>If you are struggling with uncertainty in your spiritual journey or feeling disconnected from your higher purpose, remember that true understanding of the Divine is born out of devotion. It’s not through intellectual pursuit alone, but through heartfelt love and surrender that you come to know the truth of the universe. Allow yourself to immerse in this devotion, and you will find your soul merging with the Supreme, bringing inner peace and ultimate fulfillment.</t>
+  </si>
+  <si>
+    <t>Devotional Practice, Spiritual Enlightenment</t>
+  </si>
+  <si>
+    <t>Divine Grace, Ultimate Goal, Selfless Service</t>
+  </si>
+  <si>
+    <t>Devotion, Eternal Peace, Spiritual Ascent</t>
+  </si>
+  <si>
+    <t>By dedicating every action to the Divine, you transcend the limitations of worldly attachments and concerns. When you anchor your every deed in the Divine, seeking refuge in God's grace, you are guided towards the Supreme, reaching the eternal, imperishable realm. No matter what task you perform, if it is done with devotion and for the sake of God, it leads you to the ultimate peace and liberation.</t>
+  </si>
+  <si>
+    <t>If you feel overwhelmed by your responsibilities or uncertain about your spiritual path, remember that the key is not just in the actions you perform, but in dedicating them to the Divine. With each task you do, offer it as a form of service to the higher power, and through divine grace, you will find your way to eternal peace. The more you align with the Divine will, the closer you come to your ultimate spiritual goal.</t>
+  </si>
+  <si>
+    <t>Divine Guidance, Spiritual Practice</t>
+  </si>
+  <si>
+    <t>Devotion, Surrender, Divine Connection</t>
+  </si>
+  <si>
+    <t>Total Surrender, Mindful Action, Unity with God</t>
+  </si>
+  <si>
+    <t>To reach the highest state of spiritual realization, you must dedicate every action to God with a pure heart. By surrendering your will and actions to the Divine, accepting that the results of all actions lie in God's hands, and maintaining a constant focus on Him through mindful devotion, you create a direct path to eternal unity with the Divine. This dedication should be unwavering, allowing your mind to rest continually in the divine presence, freeing you from the burden of expectations and attachments.</t>
+  </si>
+  <si>
+    <t>If you are struggling with the outcomes of your efforts or feeling burdened by expectations, the solution lies in redirecting your focus. Instead of worrying about the results, surrender all your actions to the Divine. Trust that the universe will unfold as it should, and maintain a constant connection with your higher purpose. This approach not only brings peace but also allows you to align with a deeper spiritual truth, leading to liberation.</t>
+  </si>
+  <si>
+    <t>Spiritual Practice, Mindfulness</t>
+  </si>
+  <si>
+    <t>To overcome life's obstacles and difficulties, it is essential to keep your mind focused on the Divine. With God's grace, all challenges will be surmountable. However, if you allow ego to take over and fail to listen to the Divine teachings, you will lose your way. The key to overcoming any adversity lies in surrendering to the Divine guidance and letting go of pride. Trust in God's wisdom, follow His path, and you will find peace and success, even in the most difficult situations.</t>
+  </si>
+  <si>
+    <t>Divine Grace, Surrender, Overcoming Obstacles</t>
+  </si>
+  <si>
+    <t>Surrender to God, Ego, Divine Wisdom</t>
+  </si>
+  <si>
+    <t>If you are feeling overwhelmed by life's challenges or stuck in a cycle of failure, reflect on whether you are allowing ego or self-centeredness to cloud your judgment. The solution lies in stepping back and focusing on the Divine, trusting that His guidance will carry you through. By humbling yourself and following His teachings, you will find clarity and strength to navigate through your difficulties.</t>
+  </si>
+  <si>
+    <t>Spiritual Practice, Overcoming Challenges</t>
+  </si>
+  <si>
+    <t>Duty, Ego, Destiny</t>
+  </si>
+  <si>
+    <t>Duty, Self-realization, Action, Ego</t>
+  </si>
+  <si>
+    <t>You may feel conflicted about fulfilling your responsibilities, but refusing to act due to ego or fear will not free you from your duties. Your nature and destiny are aligned with certain actions, and no matter how hard you try to avoid them, you will eventually be compelled to fulfill them. Understand that your true path lies in embracing your responsibilities with humility, not in avoiding them due to pride or self-doubt.</t>
+  </si>
+  <si>
+    <t>Duty, Self-Realization, Overcoming Ego</t>
+  </si>
+  <si>
+    <t>If you are avoiding a challenge or responsibility because of fear, pride, or the belief that you are not capable, remember that true growth comes through fulfilling your duty, even when it seems difficult. Reflect on what is truly expected of you, and move forward with confidence and humility. Whether you choose to face the challenge or not, life will still push you toward it—so embrace it with faith in yourself and the guidance you receive.</t>
+  </si>
+  <si>
+    <t>Duty, Self-Identity, Integrity</t>
+  </si>
+  <si>
+    <t>Personal Dharma, Imperfection, Self-reliance</t>
+  </si>
+  <si>
+    <t>Focus on fulfilling your own responsibilities, even if they seem less glamorous or require you to deal with imperfections. It is always better to act in alignment with your natural disposition and values than to strive for perfection in tasks that are not meant for you. By staying true to your path and performing duties in accordance with your nature, you maintain integrity and avoid the negative effects of performing duties that don't resonate with your true self.</t>
+  </si>
+  <si>
+    <t>If you feel pressured to take on tasks or roles that are not aligned with your own strengths or purpose, it's important to pause and reflect. Trust in your abilities and focus on doing what you are meant to do, rather than trying to imitate someone else's path. Even if your journey feels less polished or lacks external recognition, remember that staying true to yourself and your own duties is what brings fulfillment and peace.</t>
+  </si>
+  <si>
+    <t>Duty, Self-Identity, Overcoming External Expectations</t>
+  </si>
+  <si>
+    <t>Imperfection, Duty, Persistence</t>
+  </si>
+  <si>
+    <t>Self-reliance, Effort, Overcoming Challenges</t>
+  </si>
+  <si>
+    <t>Even when you encounter imperfections in your work, don't abandon it. Every task, no matter how noble, comes with its own challenges and flaws. It is part of the process. Recognize that imperfection is a natural part of growth and development. Just as fire is covered by smoke, every endeavor has its difficulties. However, the key is perseverance—continue performing your duty and trust that through persistence, you will improve.</t>
+  </si>
+  <si>
+    <t>If you find yourself overwhelmed by the flaws or setbacks in your work or goals, remember that no task is free from difficulties. The important thing is not to give up or switch paths when things don't go perfectly. Instead, embrace the imperfections as part of your learning and progress. By staying committed to your own tasks and responsibilities, you will eventually overcome the challenges and achieve growth.</t>
+  </si>
+  <si>
+    <t>Personal Growth, Duty, Overcoming Challenges</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2113,6 +3012,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2181,7 +3086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2190,28 +3095,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2222,18 +3130,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2568,11 +3477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527399A3-7454-456D-8AA7-1718061F1D4D}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2591,507 +3500,507 @@
     <col min="12" max="12" width="57.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="26.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="26.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="12"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="159">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="172.2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f t="shared" ref="A3:A66" si="0">+A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="172.2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="409.6">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="172.2">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="159">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="172.2">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="159">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="145.80000000000001">
-      <c r="A10" s="5">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="159">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="159">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="145.80000000000001">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="193.2">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3111,26 +4020,26 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="238.2">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3150,26 +4059,26 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="195">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3189,26 +4098,26 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="195">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>126</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3228,26 +4137,26 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="255">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>130</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3267,26 +4176,26 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="345">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>134</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3306,26 +4215,26 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="315">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3345,26 +4254,26 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="225">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>142</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3384,26 +4293,26 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="270">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>146</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3423,26 +4332,26 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="165">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>147</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3459,26 +4368,26 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="283.2">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>151</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="19" t="s">
         <v>154</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3498,26 +4407,26 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="180">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>208</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>211</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3537,26 +4446,26 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="240">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>212</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>215</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3576,26 +4485,26 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="210">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>219</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3615,26 +4524,26 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="195">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>220</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>223</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3654,26 +4563,26 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="172.8">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>227</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3693,26 +4602,26 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="172.8">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>228</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>231</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3732,26 +4641,26 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="187.8">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>232</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="20" t="s">
         <v>235</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3771,26 +4680,26 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="225">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="19" t="s">
         <v>239</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3810,26 +4719,26 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="255">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>240</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="19" t="s">
         <v>243</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3849,26 +4758,26 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="195">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>244</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>247</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3888,26 +4797,26 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="201.6">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>248</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="19" t="s">
         <v>251</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3927,26 +4836,26 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="187.2">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>252</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3966,26 +4875,26 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="210">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>256</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="19" t="s">
         <v>259</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4005,26 +4914,26 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="255">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>260</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="19" t="s">
         <v>263</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -4044,26 +4953,26 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="172.8">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="19" t="s">
         <v>267</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -4083,26 +4992,26 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="210">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>268</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="19" t="s">
         <v>271</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -4122,26 +5031,26 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="158.4">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>272</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="19" t="s">
         <v>275</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -4161,26 +5070,26 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="187.2">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="19" t="s">
         <v>279</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -4200,26 +5109,26 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="187.2">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>280</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="19" t="s">
         <v>283</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -4239,26 +5148,26 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="187.2">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="19" t="s">
         <v>287</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -4278,26 +5187,26 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="225">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>288</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="19" t="s">
         <v>291</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -4317,26 +5226,26 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="225">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>292</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="19" t="s">
         <v>295</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -4356,26 +5265,26 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="405">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>296</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="19" t="s">
         <v>299</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -4395,26 +5304,26 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="409.6">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="15" t="s">
         <v>300</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="19" t="s">
         <v>303</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -4434,26 +5343,26 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="405">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>304</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="19" t="s">
         <v>307</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -4473,26 +5382,26 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="240">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>308</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="19" t="s">
         <v>311</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -4512,26 +5421,26 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="223.2">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="15" t="s">
         <v>312</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="17" t="s">
         <v>315</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -4551,26 +5460,26 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="210">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="15" t="s">
         <v>316</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="19" t="s">
         <v>319</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -4590,26 +5499,26 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="240">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>320</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="19" t="s">
         <v>323</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4629,26 +5538,26 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="255">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>467</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="19" t="s">
         <v>470</v>
       </c>
       <c r="H53" t="s">
@@ -4668,26 +5577,26 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="195">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="15" t="s">
         <v>471</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="19" t="s">
         <v>474</v>
       </c>
       <c r="H54" t="s">
@@ -4707,26 +5616,26 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="195">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>475</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="19" t="s">
         <v>478</v>
       </c>
       <c r="H55" t="s">
@@ -4746,26 +5655,26 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="270">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>479</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="19" t="s">
         <v>482</v>
       </c>
       <c r="H56" t="s">
@@ -4785,26 +5694,26 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="255">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="15" t="s">
         <v>483</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="19" t="s">
         <v>486</v>
       </c>
       <c r="H57" t="s">
@@ -4824,26 +5733,26 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="300">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="15" t="s">
         <v>487</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="19" t="s">
         <v>490</v>
       </c>
       <c r="H58" t="s">
@@ -4863,26 +5772,26 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="195">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="15" t="s">
         <v>491</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="19" t="s">
         <v>494</v>
       </c>
       <c r="H59" t="s">
@@ -4902,26 +5811,26 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="240">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="15" t="s">
         <v>495</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="19" t="s">
         <v>498</v>
       </c>
       <c r="H60" t="s">
@@ -4941,26 +5850,26 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="210">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="15" t="s">
         <v>499</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="19" t="s">
         <v>502</v>
       </c>
       <c r="H61" t="s">
@@ -4980,26 +5889,26 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="180">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="15" t="s">
         <v>503</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="19" t="s">
         <v>506</v>
       </c>
       <c r="H62" t="s">
@@ -5019,26 +5928,26 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="180">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="15" t="s">
         <v>507</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="19" t="s">
         <v>510</v>
       </c>
       <c r="H63" t="s">
@@ -5058,26 +5967,26 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="210">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="15" t="s">
         <v>511</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="19" t="s">
         <v>514</v>
       </c>
       <c r="H64" t="s">
@@ -5097,26 +6006,26 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="172.8">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="15" t="s">
         <v>515</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="19" t="s">
         <v>518</v>
       </c>
       <c r="H65" t="s">
@@ -5136,26 +6045,26 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="270">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="15" t="s">
         <v>519</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="19" t="s">
         <v>522</v>
       </c>
       <c r="H66" t="s">
@@ -5175,26 +6084,26 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="195">
-      <c r="A67" s="5">
-        <f t="shared" ref="A67:A71" si="1">+A66+1</f>
+      <c r="A67" s="6">
+        <f t="shared" ref="A67:A101" si="1">+A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="15" t="s">
         <v>523</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="19" t="s">
         <v>526</v>
       </c>
       <c r="H67" t="s">
@@ -5214,26 +6123,26 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="180">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="15" t="s">
         <v>527</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="19" t="s">
         <v>530</v>
       </c>
       <c r="H68" t="s">
@@ -5253,26 +6162,26 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="225">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="15" t="s">
         <v>531</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="19" t="s">
         <v>534</v>
       </c>
       <c r="H69" t="s">
@@ -5292,26 +6201,26 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="187.2">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="15" t="s">
         <v>535</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="19" t="s">
         <v>538</v>
       </c>
       <c r="H70" t="s">
@@ -5331,26 +6240,26 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="210">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="15" t="s">
         <v>539</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="19" t="s">
         <v>542</v>
       </c>
       <c r="H71" t="s">
@@ -5367,6 +6276,1176 @@
       </c>
       <c r="L71" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="201.6">
+      <c r="A72" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="H72" t="s">
+        <v>712</v>
+      </c>
+      <c r="I72" t="s">
+        <v>713</v>
+      </c>
+      <c r="J72" t="s">
+        <v>714</v>
+      </c>
+      <c r="K72" t="s">
+        <v>715</v>
+      </c>
+      <c r="L72" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="253.2">
+      <c r="A73" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="H73" t="s">
+        <v>717</v>
+      </c>
+      <c r="I73" t="s">
+        <v>718</v>
+      </c>
+      <c r="J73" t="s">
+        <v>719</v>
+      </c>
+      <c r="K73" t="s">
+        <v>721</v>
+      </c>
+      <c r="L73" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="201.6">
+      <c r="A74" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="H74" t="s">
+        <v>722</v>
+      </c>
+      <c r="I74" t="s">
+        <v>723</v>
+      </c>
+      <c r="J74" t="s">
+        <v>724</v>
+      </c>
+      <c r="K74" t="s">
+        <v>726</v>
+      </c>
+      <c r="L74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="195">
+      <c r="A75" s="6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="H75" t="s">
+        <v>727</v>
+      </c>
+      <c r="I75" t="s">
+        <v>728</v>
+      </c>
+      <c r="J75" t="s">
+        <v>729</v>
+      </c>
+      <c r="K75" t="s">
+        <v>731</v>
+      </c>
+      <c r="L75" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="187.2">
+      <c r="A76" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="H76" t="s">
+        <v>732</v>
+      </c>
+      <c r="I76" t="s">
+        <v>733</v>
+      </c>
+      <c r="J76" t="s">
+        <v>734</v>
+      </c>
+      <c r="K76" t="s">
+        <v>736</v>
+      </c>
+      <c r="L76" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="390">
+      <c r="A77" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H77" t="s">
+        <v>737</v>
+      </c>
+      <c r="I77" t="s">
+        <v>738</v>
+      </c>
+      <c r="J77" t="s">
+        <v>739</v>
+      </c>
+      <c r="K77" t="s">
+        <v>741</v>
+      </c>
+      <c r="L77" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="270">
+      <c r="A78" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="H78" t="s">
+        <v>742</v>
+      </c>
+      <c r="I78" t="s">
+        <v>743</v>
+      </c>
+      <c r="J78" t="s">
+        <v>744</v>
+      </c>
+      <c r="K78" t="s">
+        <v>746</v>
+      </c>
+      <c r="L78" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="180">
+      <c r="A79" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="H79" t="s">
+        <v>747</v>
+      </c>
+      <c r="I79" t="s">
+        <v>748</v>
+      </c>
+      <c r="J79" t="s">
+        <v>749</v>
+      </c>
+      <c r="K79" t="s">
+        <v>751</v>
+      </c>
+      <c r="L79" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="180">
+      <c r="A80" s="6">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="H80" t="s">
+        <v>756</v>
+      </c>
+      <c r="I80" t="s">
+        <v>755</v>
+      </c>
+      <c r="J80" t="s">
+        <v>754</v>
+      </c>
+      <c r="K80" t="s">
+        <v>753</v>
+      </c>
+      <c r="L80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="172.8">
+      <c r="A81" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="H81" t="s">
+        <v>759</v>
+      </c>
+      <c r="I81" t="s">
+        <v>758</v>
+      </c>
+      <c r="J81" t="s">
+        <v>757</v>
+      </c>
+      <c r="K81" t="s">
+        <v>761</v>
+      </c>
+      <c r="L81" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="225">
+      <c r="A82" s="6">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H82" t="s">
+        <v>762</v>
+      </c>
+      <c r="I82" t="s">
+        <v>763</v>
+      </c>
+      <c r="J82" t="s">
+        <v>764</v>
+      </c>
+      <c r="K82" t="s">
+        <v>766</v>
+      </c>
+      <c r="L82" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="240">
+      <c r="A83" s="6">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="H83" t="s">
+        <v>767</v>
+      </c>
+      <c r="I83" t="s">
+        <v>768</v>
+      </c>
+      <c r="J83" t="s">
+        <v>769</v>
+      </c>
+      <c r="K83" t="s">
+        <v>771</v>
+      </c>
+      <c r="L83" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="315">
+      <c r="A84" s="6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="H84" t="s">
+        <v>772</v>
+      </c>
+      <c r="I84" t="s">
+        <v>773</v>
+      </c>
+      <c r="J84" t="s">
+        <v>774</v>
+      </c>
+      <c r="K84" t="s">
+        <v>776</v>
+      </c>
+      <c r="L84" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="315">
+      <c r="A85" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="H85" t="s">
+        <v>777</v>
+      </c>
+      <c r="I85" t="s">
+        <v>778</v>
+      </c>
+      <c r="J85" t="s">
+        <v>779</v>
+      </c>
+      <c r="K85" t="s">
+        <v>781</v>
+      </c>
+      <c r="L85" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="165">
+      <c r="A86" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="H86" t="s">
+        <v>782</v>
+      </c>
+      <c r="I86" t="s">
+        <v>783</v>
+      </c>
+      <c r="J86" t="s">
+        <v>784</v>
+      </c>
+      <c r="K86" t="s">
+        <v>786</v>
+      </c>
+      <c r="L86" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="240">
+      <c r="A87" s="6">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="H87" t="s">
+        <v>788</v>
+      </c>
+      <c r="I87" t="s">
+        <v>789</v>
+      </c>
+      <c r="J87" t="s">
+        <v>787</v>
+      </c>
+      <c r="K87" t="s">
+        <v>791</v>
+      </c>
+      <c r="L87" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="240">
+      <c r="A88" s="6">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="H88" t="s">
+        <v>792</v>
+      </c>
+      <c r="I88" t="s">
+        <v>793</v>
+      </c>
+      <c r="J88" t="s">
+        <v>794</v>
+      </c>
+      <c r="K88" t="s">
+        <v>796</v>
+      </c>
+      <c r="L88" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="210">
+      <c r="A89" s="6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="H89" t="s">
+        <v>797</v>
+      </c>
+      <c r="I89" t="s">
+        <v>798</v>
+      </c>
+      <c r="J89" t="s">
+        <v>799</v>
+      </c>
+      <c r="K89" t="s">
+        <v>801</v>
+      </c>
+      <c r="L89" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="300">
+      <c r="A90" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="H90" t="s">
+        <v>854</v>
+      </c>
+      <c r="I90" t="s">
+        <v>855</v>
+      </c>
+      <c r="J90" t="s">
+        <v>856</v>
+      </c>
+      <c r="K90" t="s">
+        <v>858</v>
+      </c>
+      <c r="L90" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="270">
+      <c r="A91" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="H91" t="s">
+        <v>859</v>
+      </c>
+      <c r="I91" t="s">
+        <v>860</v>
+      </c>
+      <c r="J91" t="s">
+        <v>861</v>
+      </c>
+      <c r="K91" t="s">
+        <v>863</v>
+      </c>
+      <c r="L91" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="285">
+      <c r="A92" s="6">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H92" t="s">
+        <v>864</v>
+      </c>
+      <c r="I92" t="s">
+        <v>865</v>
+      </c>
+      <c r="J92" t="s">
+        <v>866</v>
+      </c>
+      <c r="K92" t="s">
+        <v>867</v>
+      </c>
+      <c r="L92" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="253.2">
+      <c r="A93" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="H93" t="s">
+        <v>869</v>
+      </c>
+      <c r="I93" t="s">
+        <v>870</v>
+      </c>
+      <c r="J93" t="s">
+        <v>871</v>
+      </c>
+      <c r="K93" t="s">
+        <v>873</v>
+      </c>
+      <c r="L93" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="285">
+      <c r="A94" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="H94" t="s">
+        <v>874</v>
+      </c>
+      <c r="I94" t="s">
+        <v>875</v>
+      </c>
+      <c r="J94" t="s">
+        <v>876</v>
+      </c>
+      <c r="K94" t="s">
+        <v>878</v>
+      </c>
+      <c r="L94" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="225">
+      <c r="A95" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="H95" t="s">
+        <v>879</v>
+      </c>
+      <c r="I95" t="s">
+        <v>880</v>
+      </c>
+      <c r="J95" t="s">
+        <v>881</v>
+      </c>
+      <c r="K95" t="s">
+        <v>883</v>
+      </c>
+      <c r="L95" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="180">
+      <c r="A96" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="H96" t="s">
+        <v>884</v>
+      </c>
+      <c r="I96" t="s">
+        <v>885</v>
+      </c>
+      <c r="J96" t="s">
+        <v>886</v>
+      </c>
+      <c r="K96" t="s">
+        <v>888</v>
+      </c>
+      <c r="L96" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="255">
+      <c r="A97" s="6">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="H97" t="s">
+        <v>889</v>
+      </c>
+      <c r="I97" t="s">
+        <v>890</v>
+      </c>
+      <c r="J97" t="s">
+        <v>891</v>
+      </c>
+      <c r="K97" t="s">
+        <v>893</v>
+      </c>
+      <c r="L97" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="270">
+      <c r="A98" s="6">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="H98" t="s">
+        <v>895</v>
+      </c>
+      <c r="I98" t="s">
+        <v>896</v>
+      </c>
+      <c r="J98" t="s">
+        <v>894</v>
+      </c>
+      <c r="K98" t="s">
+        <v>898</v>
+      </c>
+      <c r="L98" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="225">
+      <c r="A99" s="6">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="H99" t="s">
+        <v>899</v>
+      </c>
+      <c r="I99" t="s">
+        <v>900</v>
+      </c>
+      <c r="J99" t="s">
+        <v>901</v>
+      </c>
+      <c r="K99" t="s">
+        <v>902</v>
+      </c>
+      <c r="L99" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="225">
+      <c r="A100" s="6">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="H100" t="s">
+        <v>904</v>
+      </c>
+      <c r="I100" t="s">
+        <v>905</v>
+      </c>
+      <c r="J100" t="s">
+        <v>906</v>
+      </c>
+      <c r="K100" t="s">
+        <v>908</v>
+      </c>
+      <c r="L100" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="195">
+      <c r="A101" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="H101" t="s">
+        <v>909</v>
+      </c>
+      <c r="I101" t="s">
+        <v>910</v>
+      </c>
+      <c r="J101" t="s">
+        <v>911</v>
+      </c>
+      <c r="K101" t="s">
+        <v>913</v>
+      </c>
+      <c r="L101" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>
